--- a/biology/Botanique/Liste_des_plantes_médicinales_en_vente_libre_en_France/Liste_des_plantes_médicinales_en_vente_libre_en_France.xlsx
+++ b/biology/Botanique/Liste_des_plantes_médicinales_en_vente_libre_en_France/Liste_des_plantes_médicinales_en_vente_libre_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plantes médicinales en vente libre en France comprend 148 plantes. Elle a été publiée en 2008 et se substitue à la précédente publiée en 1979 qui comprenait 34 plantes médicinales pouvant être vendues au public hors du circuit pharmaceutique.
-Le code de la santé publique précise que les pharmaciens ont le monopole de la vente des plantes médicinales inscrites à la Pharmacopée sous réserve des dérogations établies par décret[1].
+Le code de la santé publique précise que les pharmaciens ont le monopole de la vente des plantes médicinales inscrites à la Pharmacopée sous réserve des dérogations établies par décret.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Plantes médicinales en vente libre en 1979</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste a été publiée en France par le décret no 79-480 du 15 juin 1979, « relatif à la vente au public des plantes médicinales inscrites à la Pharmacopée française ».
 bardane
@@ -560,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,9 +592,11 @@
           <t>Plantes médicinales en vente libre depuis 2008</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette liste a été publiée par le décret no 2008-841 du 22 août 2008, relatif à la vente au public des plantes médicinales inscrites à la Pharmacopée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste a été publiée par le décret no 2008-841 du 22 août 2008, relatif à la vente au public des plantes médicinales inscrites à la Pharmacopée.
 Cette liste donne plus d'informations sur les plantes médicinales. Outre les noms vernaculaires (en français), elle donne les noms scientifiques (en latin) et les synonymes, la famille, les parties utilisées et les formes de préparations : en l'état (E), sous forme de poudre (P) ou d'extrait aqueux (EA)
 Sommaire :
 Haut – A
@@ -609,8 +625,43 @@
 X
 Y
 Z
-A
-Acacia à gomme - Acacia senegal (L.) Willd. et autres espèces d'acacias d'origine africaine - Fabaceae - Exsudation gommeuse (= gomme arabique) - E, P, EA
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acacia à gomme - Acacia senegal (L.) Willd. et autres espèces d'acacias d'origine africaine - Fabaceae - Exsudation gommeuse (= gomme arabique) - E, P, EA
 Ache des marais - Apium graveolens (L.) - Apiaceae - Souche radicante - E, P
 Achillée millefeuille (= Millefeuille) - Achillea millefolium - Asteraceae - Sommité fleurie - E
 Agar-agar - Gelidium sp., Eucheuma sp., Gracilaria sp. - Rhodophyceae - Mucilage (= Gélose) - E, P
@@ -631,9 +682,43 @@
 Astragale à gomme - Astragalus gummifer (Labill.) et certaines espèces du genre Astragalus d'Asie occidentale - Fabaceae - Exsudation gommeuse (= gomme adragante) - E, P, EA
 Aubépine (= Épine blanche) - Crataegus laevigata (Poir.) DC., Crataegus monogyna Jacq. (Lindm.) (= Crataegus oxyacanthoïdes Thuill.) - Rosaceae - Fruit - E
 Aunée (= Aunée officinale) - Inula helenium L. - Asteraceae - Partie souterraine - E, P
-Avoine - Avena sativa L. - Poaceae - Fruit - E, P
-B
-Badianier de Chine - Illicium verum Hook. f. - Magnoliaceae - Fruit (= badiane de Chine ou anis étoilé) - E non fragmenté
+Avoine - Avena sativa L. - Poaceae - Fruit - E, P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Badianier de Chine - Illicium verum Hook. f. - Magnoliaceae - Fruit (= badiane de Chine ou anis étoilé) - E non fragmenté
 Balsamite odorante (= Menthe coq) - Balsamita major Desf. (= Chrysanthemum balsamita (L.) Baill.) - Asteraceae - Feuille, sommité fleurie - E
 Bardane (grande) - Arctium lappa L. (= Arctium majus (Gaertn.) Bernh.), (= Lappa major Gaertn.) - Asteraceae - Feuille, racine - E
 Basilic (= Basilic doux) - Ocimum basilicum L. - Lamiaceae - Feuille - E, P
@@ -642,9 +727,43 @@
 Blé - Triticum aestivum L. et cultivars (= Triticium vulgare Host), (= Triticium sativum Lam.) - Poaceae - Son - E, P
 Bouillon blanc - Verbascum thapsus L., Verbascum densiflorum Bertol. (= Verbascum thapsiforme Schrad.), Verbascum phlomoides L. - Scrophulariaceae - Corolle mondée - E
 Bourrache - Borago officinalis L. - Boraginaceae - Fleur - E
-Bruyère cendrée - Erica cinerea L. - Ericaceae - Fleur - E
-C
-Camomille romaine - Chamaemelum nobile (L.) All. (= Anthemis nobilis L.) - Asteraceae - Capitule - E
+Bruyère cendrée - Erica cinerea L. - Ericaceae - Fleur - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Camomille romaine - Chamaemelum nobile (L.) All. (= Anthemis nobilis L.) - Asteraceae - Capitule - E
 Canéficier - Cassia fistula L. - Fabaceae - Pulpe de fruit - E
 Cannelier de Ceylan - Cinnamomum zeylanicum Nees - Lauraceae - Écorce de tige raclée = cannelle de Ceylan - E, P
 Cannelier de Chine - Cinnamomum aromaticum Nees (= Cinnamomum cassia Nees ex Blume - Lauraceae - Écorce de tige = cannelle de Chine - E, P
@@ -667,22 +786,124 @@
 Courge (= Potiron) - Cucurbita maxima Lam. - Cucurbitaceae - Graine - E
 Criste marine (= Perce-pierre) - Crithmum maritimum L. - Apiaceae - Partie aérienne - E
 Curcuma long - Curcuma domestica Vahl (= Curcuma longa L.) - Zingiberaceae - Rhizome - E, P
-Cyamopsis (= Guar) - Cyamopsis tetragonoloba (L.) Taub. - Fabaceae - Graine mondée = gomme guar - E, P, EA
-E
-Églantier (= Rosier sauvage) - Rosa canina L., Rosa pendulina L. et autres espèces de Rosa - Rosaceae - Pseudo-fruit = cynorrhodon - E
+Cyamopsis (= Guar) - Cyamopsis tetragonoloba (L.) Taub. - Fabaceae - Graine mondée = gomme guar - E, P, EA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Églantier (= Rosier sauvage) - Rosa canina L., Rosa pendulina L. et autres espèces de Rosa - Rosaceae - Pseudo-fruit = cynorrhodon - E
 Éleuthérocoque - Eleutherococcus senticosus Maxim. - Araliaceae - Partie souterraine - E
 Estragon - Artemisia dracunculus L. - Asteraceae - Partie aérienne - E, P
-Eucalyptus (= Eucalyptus globuleux) - Eucalyptus globulus Labill. - Myrtaceae - Feuille - E
-F
-Fenouil amer - Foeniculum vulgare Mill. var. vulgare - Apiaceae - Fruit - E, P
+Eucalyptus (= Eucalyptus globuleux) - Eucalyptus globulus Labill. - Myrtaceae - Feuille - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fenouil amer - Foeniculum vulgare Mill. var. vulgare - Apiaceae - Fruit - E, P
 Fenouil doux (= Aneth fenouil) - Foeniculum vulgare Mill. var. dulcis - Apiaceae - Fruit - E, P
 Fenugrec - Trigonella foenum-graecum L. - Fabaceae - Graine - E, P
 Figuier - Ficus carica L. - Moraceae - Pseudo-fruit - E
 Frêne - Fraxinus excelsior L., Fraxinus oxyphylla M. Bieb. - Oleaceae - Feuille - E
 Frêne à manne - Fraxinus ornus L. - Oleaceae - Suc épaissi dit manne - E, P
-Fucus - Fucus serratus L., Fucus vesiculosus L. - Fucaceae - Thalle - E, P
-G
-Galanga (grand) - Alpinia galanga (L.) Willd. - Zingiberaceae - Rhizome - E, P
+Fucus - Fucus serratus L., Fucus vesiculosus L. - Fucaceae - Thalle - E, P</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Galanga (grand) - Alpinia galanga (L.) Willd. - Zingiberaceae - Rhizome - E, P
 Galanga (petit) - Alpinia officinarum Hance - Zingiberaceae - Rhizome - E, P
 Genévrier - Juniperus communis L. - Cupressaceae - Cône femelle dit baie de genièvre - E
 Gentiane (= Gentiane jaune) - Gentiana lutea L. - Gentianaceae - Partie souterraine - E, P
@@ -691,16 +912,152 @@
 Giroflier - Syzygium aromaticum (L.) Merr. et Perry (= Eugenia caryophyllus (Sprengel) Bull. et Harr.) - Myrtaceae - Bouton floral = clou de girofle - E, P
 Gléditschia (= Févier) - Gleditschia triacanthos L., Gleditschia ferox Desf. - Fabaceae - Graine - E, P, EA
 Griottier (= Cerisier griottier) - Prunus cerasus L., Prunus avium (L.) L. - Rosaceae - Pédoncule du fruit = queue de cerise - E
-Guimauve - Althaea officinalis L. - Malvaceae - Feuille, fleur, racine - E, P (racine)
-H
-Houblon - Humulus lupulus L. - Cannabaceae - Inflorescence femelle dite cône de houblon - E
-J
-Jujubier - Ziziphus jujuba Mill. (= Ziziphus sativa Gaertn.), (= Ziziphus vulgaris Lam.), (= Rhamnus zizyphus L.) - Rhamnaceae - Fruit privé de graines - E
-K
-Karkadé (= Oseille de Guinée), (= Hibiscus) - Hibiscus sabdariffa L. - Malvaceae - Calice et calicule - E
-Kolatier (= Colatier), (= Kola) - Cola acuminata (P. Beauv.) Schott et Endl. (= Sterculia acuminata P. Beauv.), Cola nitida (Vent.) Schott et Endl. (= Cola vera K. Schum.) et variétés - Sterculiaceae - Amande dite noix de kola E, P
-L
-Lamier blanc (= Ortie blanche) - Lamium album L. - Lamiaceae - Corolle mondée, sommité fleurie - E
+Guimauve - Althaea officinalis L. - Malvaceae - Feuille, fleur, racine - E, P (racine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Houblon - Humulus lupulus L. - Cannabaceae - Inflorescence femelle dite cône de houblon - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jujubier - Ziziphus jujuba Mill. (= Ziziphus sativa Gaertn.), (= Ziziphus vulgaris Lam.), (= Rhamnus zizyphus L.) - Rhamnaceae - Fruit privé de graines - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Karkadé (= Oseille de Guinée), (= Hibiscus) - Hibiscus sabdariffa L. - Malvaceae - Calice et calicule - E
+Kolatier (= Colatier), (= Kola) - Cola acuminata (P. Beauv.) Schott et Endl. (= Sterculia acuminata P. Beauv.), Cola nitida (Vent.) Schott et Endl. (= Cola vera K. Schum.) et variétés - Sterculiaceae - Amande dite noix de kola E, P</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lamier blanc (= Ortie blanche) - Lamium album L. - Lamiaceae - Corolle mondée, sommité fleurie - E
 Laminaire - Laminaria digitata J.P. Lamour., Laminaria hyperborea (Gunnerus) Foslie, Laminaria cloustonii Le Jol. - Laminariaceae - Stipe, thalle - E, EA (thalle)
 Laurier commun (= Laurier sauce) - Laurus nobilis L. - Lauraceae - Feuille - E, P
 Lavande (= Lavande vraie) - Lavandula angustifolia Mill. (= Lavandula vera DC.) - Lamiaceae - Fleur, sommité fleurie - E
@@ -711,9 +1068,43 @@
 Lichen d'Islande - Cetraria islandica (L.) Ach. sensu latiore - Parmeliaceae - Thalle - E
 Lierre terrestre - Glechoma hederacea L. (= Nepeta glechoma Benth.) - Lamiaceae - Partie aérienne fleurie - E
 Lin - Linum usitatissimum L. - Linaceae - Graine - E, P
-Livèche - Levisticum officinale Koch. - Apiaceae - Feuille, fruit, partie souterraine - E, P
-M
-Marjolaine (= Origan marjolaine) - Origanum majorana L. (= Majorana hortensis Moench) - Lamiaceae - Feuille, sommité fleurie - E, P
+Livèche - Levisticum officinale Koch. - Apiaceae - Feuille, fruit, partie souterraine - E, P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Marjolaine (= Origan marjolaine) - Origanum majorana L. (= Majorana hortensis Moench) - Lamiaceae - Feuille, sommité fleurie - E, P
 Maté (= Thé du Paraguay) - Ilex paraguariensis St.-Hil. (= Ilex paraguayensis Lamb.) - Aquifoliaceae - Feuille - E, EA
 Matricaire (= Camomille allemande), (= Camomille vulgaire) - Matricaria recutita L. (= Chamomilla recutita (L.) Rausch.), (= Matricaria chamomilla L.) - Asteraceae - Capitule - E
 Mauve - Malva sylvestris L. - Malvaceae - Feuille, fleur - E
@@ -724,25 +1115,127 @@
 Moutarde junciforme - Brassica juncea (L.) Czern. - Brassicaceae - Graine - E, P
 Muscadier aromatique - Myristica fragrans Houtt. (= Myristica moschata Thunb.) - Myristicaceae - Graine dite muscade ou noix de muscade, arille dite macis - E, P (graine)
 Myrte - Myrtus communis L. - Myrtaceae - Feuille - E
-Myrtille (= Airelle myrtille) - Vaccinium myrtillus L. - Ericaceae - Feuille, fruit - E
-O
-Olivier - Olea europaea L. - Oleaceae - Feuille - E
+Myrtille (= Airelle myrtille) - Vaccinium myrtillus L. - Ericaceae - Feuille, fruit - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Olivier - Olea europaea L. - Oleaceae - Feuille - E
 Oranger amer (= Bigaradier) - Citrus aurantium L. (= Citrus bigaradia Duch.), (= Citrus vulgaris Risso) - Rutaceae - Feuille, fleur, péricarpe dit écorce ou zeste - E, P (péricarpe)
 Oranger doux - Citrus sinensis (L.) Pers. - Rutaceae - Péricarpe dit écorce ou zeste - E, P
 Origan - Origanum vulgare L. - Lamiaceae - Feuille, sommité fleurie - E, P
 Ortie brûlante - Urtica urens L. - Urticaceae - Partie aérienne - E
-Ortie dioïque - Urtica dioica L. - Urticaceae - Partie aérienne - E
-P
-Papayer - Carica papaya L. - Caricaceae - Suc du fruit, feuille - E, P (suc de fruit)
+Ortie dioïque - Urtica dioica L. - Urticaceae - Partie aérienne - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Papayer - Carica papaya L. - Caricaceae - Suc du fruit, feuille - E, P (suc de fruit)
 Paullinia - Paullinia cupana Kunth. (= Paullinia sorbilis Mart.) - Sapindaceae - Graine, extrait préparé avec la graine = guarana - E, P (extrait)
 Pensée sauvage (= Violette tricolore) - Viola arvensis Murray, Viola tricolor L. - Violaceae - Fleur, partie aérienne fleurie - E
 Piment de Cayenne (= Piment enragé) (= Petit piment) - Capsicum frutescens L. - Solanaceae - Fruit - E, P
 Pin sylvestre - Pinus sylvestris L. - Pinaceae - Bourgeon - E
 Pissenlit (= Dent de lion) - Taraxacum officinale Web. - Asteraceae - Feuille, partie aérienne - E
 Pommier - Malus sylvestris Mill. (= Pyrus malus L.) - Rosaceae - Fruit - E
-Prunier - Prunus domestica L. - Rosaceae - Fruit - E
-R
-Radis noir - Raphanus sativus L. var. niger (Mill.) Kerner - Brassicaceae - Racine - E
+Prunier - Prunus domestica L. - Rosaceae - Fruit - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Radis noir - Raphanus sativus L. var. niger (Mill.) Kerner - Brassicaceae - Racine - E
 Raifort sauvage - Armoracia rusticana Gaertn., B. Mey. et Scherb. (= Cochlearia armoracia L.) - Brassicaceae - Racine - E, P
 Réglisse - Glycyrrhiza glabra L. - Fabaceae - Partie souterraine - E, P, EA
 Reine-des-prés (= Ulmaire) - Filipendula ulmaria (L.) Maxim. (= Spiraea ulmaria L.) - Rosaceae - Fleur, sommité fleurie - E
@@ -751,9 +1244,43 @@
 Rose trémière (= Passerose) - Alcea rosea L. (= Althaea rosea L.) - Malvaceae - Fleur - E
 Rosier à roses pâles - Rosa centifolia L. - Rosaceae - Bouton floral, pétale - E
 Rosier de Damas - Rosa damascena Mill. - Rosaceae - Bouton floral, pétale - E
-Rosier de Provins (= Rosier à roses rouges) - Rosa gallica L. - Rosaceae - Bouton floral, pétale - E
-S
-Safran - Crocus sativus L. - Iridaceae - Stigmate - E, P
+Rosier de Provins (= Rosier à roses rouges) - Rosa gallica L. - Rosaceae - Bouton floral, pétale - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Safran - Crocus sativus L. - Iridaceae - Stigmate - E, P
 Sarriette des jardins - Satureja hortensis L. - Lamiaceae - Feuille, sommité fleurie - E, P
 Sarriette des montagnes - Satureja montana L. - Lamiaceae - Feuille, sommité fleurie - E, P
 Sauge d'Espagne - Salvia lavandulifolia Vahl. - Lamiaceae - Feuille, sommité fleurie - E, P
@@ -763,15 +1290,83 @@
 Seigle - Secale cereale L. - Poaceae - Fruit, son - E, P
 Serpolet (= Thym serpolet) - Thymus serpyllum L. sensu latiore - Lamiaceae - Feuille, sommité fleurie - E, P
 Sterculia - Sterculia urens Roxb., Sterculia tomentosa Guill. et Perr. - Sterculiaceae - Exsudation gommeuse = gomme de Sterculia, gomme Karaya, gomme M'Bep - E, P, EA
-Sureau noir - Sambucus nigra L. - Caprifoliaceae - Fleur, fruit - E
-T
-Tamarinier de l'Inde - Tamarindus indica L. - Fabaceae - Pulpe de fruit - E, P
+Sureau noir - Sambucus nigra L. - Caprifoliaceae - Fleur, fruit - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tamarinier de l'Inde - Tamarindus indica L. - Fabaceae - Pulpe de fruit - E, P
 Temoe-lawacq - Curcuma xanthorrhiza (en) Roxb. - Zingiberaceae - Rhizome - E
 Théier (= Thé) - Camellia sinensis (L.) Kuntze (= Camellia thea Link), (= Thea sinensis (L.) Kuntze) - Theaceae - Feuille - E, EA
 Thym - Thymus vulgaris L., Thymus zygis L. - Lamiaceae - Feuille, sommité fleurie - E, P
-Tilleul - Tilia platyphyllos Scop., Tilia cordata Mill. (= Tilia ulmifolia Scop.), (= Tilia parvifolia Ehrh. ex Hoffm.), (= Tilia sylvestris Desf.), Tilia × vulgaris Heyne ou mélanges - Tiliaceae - Aubier, inflorescence - E
-V
-Verveine odorante - Aloysia citrodora Palau (= Aloysia triphylla (L'Hérit.) Britt.), (= Lippia citriodora H.B.K.) - Verbenaceae - Feuille - E
+Tilleul - Tilia platyphyllos Scop., Tilia cordata Mill. (= Tilia ulmifolia Scop.), (= Tilia parvifolia Ehrh. ex Hoffm.), (= Tilia sylvestris Desf.), Tilia × vulgaris Heyne ou mélanges - Tiliaceae - Aubier, inflorescence - E</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_plantes_médicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_plantes_m%C3%A9dicinales_en_vente_libre_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Plantes médicinales en vente libre depuis 2008</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Verveine odorante - Aloysia citrodora Palau (= Aloysia triphylla (L'Hérit.) Britt.), (= Lippia citriodora H.B.K.) - Verbenaceae - Feuille - E
 Vigne rouge - Vitis vinifera L. - Vitaceae - Feuille - E
 Violette - Viola calcarata L., Viola lutea Huds., Viola odorata L. - Violaceae - Fleur - E</t>
         </is>
